--- a/报名信息/第一届开发者报名表.xlsx
+++ b/报名信息/第一届开发者报名表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\GameDevSolitaireNo1\报名信息\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87031051-F067-43A0-86EF-9BE471296585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="21120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
     <t>编号</t>
   </si>
@@ -110,96 +104,6 @@
   </si>
   <si>
     <t>qq3425519400</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>季伯常</t>
-  </si>
-  <si>
-    <t>https://space.bilibili.com/78090201</t>
-  </si>
-  <si>
-    <t>qq2789794681</t>
-  </si>
-  <si>
-    <t>wdf怎么会有人会两个引擎(叉腰）</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>基纳Kenner</t>
-  </si>
-  <si>
-    <t>https://space.bilibili.com/3546746594527445</t>
-  </si>
-  <si>
-    <t>dos命令行算吗？</t>
-  </si>
-  <si>
-    <t>qq931095068</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>耳听怒</t>
-  </si>
-  <si>
-    <t>https://space.bilibili.com/3546975494474074</t>
-  </si>
-  <si>
-    <t>Scratch</t>
-  </si>
-  <si>
-    <t>qq781833086</t>
-  </si>
-  <si>
-    <t>Scratch也是引擎（</t>
-  </si>
-  <si>
-    <t>07</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿吉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://space.bilibili.com/488419</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RpgMaker Cocos</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>qq839161734</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>初四和初六满了，其他时间都可以</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>尘聲</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://space.bilibili.com/3255145</t>
-  </si>
-  <si>
-    <t>Ureal</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>qq1780389351</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -207,7 +111,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>👈</t>
     </r>
@@ -216,12 +120,91 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 非范例，Gove将参与开发</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>季伯常</t>
+  </si>
+  <si>
+    <t>https://space.bilibili.com/78090201</t>
+  </si>
+  <si>
+    <t>qq2789794681</t>
+  </si>
+  <si>
+    <t>wdf怎么会有人会两个引擎(叉腰）</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>基纳Kenner</t>
+  </si>
+  <si>
+    <t>https://space.bilibili.com/3546746594527445</t>
+  </si>
+  <si>
+    <t>dos命令行算吗？</t>
+  </si>
+  <si>
+    <t>qq931095068</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>耳听怒</t>
+  </si>
+  <si>
+    <t>https://space.bilibili.com/3546975494474074</t>
+  </si>
+  <si>
+    <t>Scratch</t>
+  </si>
+  <si>
+    <t>qq781833086</t>
+  </si>
+  <si>
+    <t>Scratch也是引擎（</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>阿吉</t>
+  </si>
+  <si>
+    <t>https://space.bilibili.com/488419</t>
+  </si>
+  <si>
+    <t>RpgMaker Cocos</t>
+  </si>
+  <si>
+    <t>qq839161734</t>
+  </si>
+  <si>
+    <t>初四和初六满了，其他时间都可以</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>尘聲</t>
+  </si>
+  <si>
+    <t>https://space.bilibili.com/3255145</t>
+  </si>
+  <si>
+    <t>Ureal</t>
+  </si>
+  <si>
+    <t>qq1780389351</t>
   </si>
   <si>
     <r>
@@ -229,7 +212,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>👈</t>
     </r>
@@ -238,19 +221,41 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 非范例，会两个引擎不是很正常吗</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>龙QAVC</t>
+  </si>
+  <si>
+    <t>https://space.bilibili.com/430278358</t>
+  </si>
+  <si>
+    <t>Gamemaker</t>
+  </si>
+  <si>
+    <t>qq2803565987</t>
+  </si>
+  <si>
+    <t>👈 非范例，只会一个引擎不是很正常吗</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,38 +271,161 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI Emoji"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,8 +438,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -319,197 +633,366 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="6" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <border>
@@ -520,7 +1003,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -548,43 +1031,176 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.399975585192419"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="16"/>
-      <tableStyleElement type="headerRow" dxfId="15"/>
-      <tableStyleElement type="totalRow" dxfId="14"/>
-      <tableStyleElement type="firstColumn" dxfId="13"/>
-      <tableStyleElement type="lastColumn" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="totalRow" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
-      <tableStyleElement type="pageFieldValues" dxfId="0"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/woinfos.xml><?xml version="1.0" encoding="utf-8"?>
+<woInfos xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookInfo cellCmpFml="0" dbFileVersion="0">
+    <open main="67" threadCnt="1"/>
+    <sheetInfos>
+      <sheetInfo cellCmpFml="0" sheetStid="1">
+        <open main="1" threadCnt="1"/>
+      </sheetInfo>
+      <sheetInfo cellCmpFml="0" sheetStid="2">
+        <open threadCnt="1"/>
+      </sheetInfo>
+      <sheetInfo cellCmpFml="0" sheetStid="3">
+        <open threadCnt="1"/>
+      </sheetInfo>
+    </sheetInfos>
+  </bookInfo>
+</woInfos>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -640,7 +1256,7 @@
         <a:cs typeface=""/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme>
+    <a:fmtScheme name="">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -735,19 +1351,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="17.875" customWidth="1"/>
@@ -758,7 +1374,7 @@
     <col min="7" max="7" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -781,7 +1397,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -804,7 +1420,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -824,7 +1440,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" ht="14.25" spans="1:7">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -843,160 +1459,239 @@
       <c r="F4" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>52</v>
+      <c r="G4" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>35</v>
+    <row r="7" spans="1:7">
+      <c r="A7" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="7" t="s">
+    <row r="8" spans="1:7">
+      <c r="A8" s="7" t="s">
         <v>42</v>
       </c>
+      <c r="B8" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="C8" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="F8" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="G8" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="7" t="s">
+    <row r="9" ht="14.25" spans="1:7">
+      <c r="A9" s="7" t="s">
         <v>48</v>
       </c>
+      <c r="B9" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="E9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="F9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{CBC16C14-00A8-47FD-8730-A6118F6D766E}"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://space.bilibili.com/1014603451"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://space.bilibili.com/66599049"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://space.bilibili.com/511580861"/>
+    <hyperlink ref="C5" r:id="rId4" display="https://space.bilibili.com/78090201"/>
+    <hyperlink ref="C6" r:id="rId5" display="https://space.bilibili.com/3546746594527445"/>
+    <hyperlink ref="C7" r:id="rId6" display="https://space.bilibili.com/3546975494474074"/>
+    <hyperlink ref="C8" r:id="rId7" display="https://space.bilibili.com/488419"/>
+    <hyperlink ref="C10" r:id="rId8" display="https://space.bilibili.com/430278358"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <woSheetsProps>
+    <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
+      <cellprotection/>
+      <appEtDbRelations/>
+    </woSheetProps>
+    <woSheetProps sheetStid="2" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
+      <cellprotection/>
+      <appEtDbRelations/>
+    </woSheetProps>
+    <woSheetProps sheetStid="3" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
+      <cellprotection/>
+      <appEtDbRelations/>
+    </woSheetProps>
+  </woSheetsProps>
+  <woBookProps>
+    <bookSettings fileId="494221773645" isFilterShared="1" woEtMtcEnabled="0" coreConquerUserId="" isAutoUpdatePaused="0" filterType="conn" isMergeTasksAutoUpdate="0" isInserPicAsAttachment="0" supportDbFmlaDisp="0"/>
+  </woBookProps>
+</woProps>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="4"/>
+</pixelators>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/报名信息/第一届开发者报名表.xlsx
+++ b/报名信息/第一届开发者报名表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\GameDevSolitaireNo1\报名信息\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Code\Github\GameDevSolitaireNo1\报名信息\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87031051-F067-43A0-86EF-9BE471296585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48BF47C-3958-4706-8532-694A81D834A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,24 +18,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
   <si>
     <t>编号</t>
   </si>
@@ -64,9 +51,6 @@
     <t>独游凯恩</t>
   </si>
   <si>
-    <t>https://space.bilibili.com/1014603451</t>
-  </si>
-  <si>
     <t>Godot</t>
   </si>
   <si>
@@ -101,9 +85,6 @@
   </si>
   <si>
     <t>Gove</t>
-  </si>
-  <si>
-    <t>https://space.bilibili.com/511580861</t>
   </si>
   <si>
     <t>Unity</t>
@@ -245,12 +226,88 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>瑞天</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://space.bilibili.com/350313223</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Godot</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq2313046462</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>👈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 我真用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>pico8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>做你们会介意吗（</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unity或者…PICO-8（?）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://space.bilibili.com/1014603451</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://space.bilibili.com/511580861</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,6 +353,12 @@
       <name val="Segoe UI Emoji"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -335,9 +398,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -354,6 +414,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -741,24 +804,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.625" customWidth="1"/>
-    <col min="2" max="2" width="17.875" customWidth="1"/>
-    <col min="3" max="3" width="45.25" customWidth="1"/>
-    <col min="4" max="4" width="21.625" customWidth="1"/>
-    <col min="5" max="5" width="24.75" customWidth="1"/>
-    <col min="6" max="6" width="15.125" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="17.90625" customWidth="1"/>
+    <col min="3" max="3" width="45.26953125" customWidth="1"/>
+    <col min="4" max="4" width="21.6328125" customWidth="1"/>
+    <col min="5" max="5" width="24.7265625" customWidth="1"/>
+    <col min="6" max="6" width="15.08984375" customWidth="1"/>
     <col min="7" max="7" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -781,180 +844,208 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="8" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>52</v>
       </c>
+      <c r="B10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>53</v>
+    <row r="11" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="G11" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -967,9 +1058,10 @@
     <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="C8" r:id="rId7" xr:uid="{CBC16C14-00A8-47FD-8730-A6118F6D766E}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{E8585C8A-F730-4C54-B597-5BAE8E7B5B0F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -979,7 +1071,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -993,7 +1085,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
